--- a/data/pca/factorExposure/factorExposure_2011-12-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01096030766956206</v>
+        <v>0.0114280651732823</v>
       </c>
       <c r="C2">
-        <v>-0.02989565750615882</v>
+        <v>-0.02443892926654178</v>
       </c>
       <c r="D2">
-        <v>-0.02196717065520008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02428711187163849</v>
+      </c>
+      <c r="E2">
+        <v>-0.007151132637552273</v>
+      </c>
+      <c r="F2">
+        <v>0.02693921900708202</v>
+      </c>
+      <c r="G2">
+        <v>-0.003716697453409724</v>
+      </c>
+      <c r="H2">
+        <v>-0.02632236556094684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0751403241917569</v>
+        <v>0.08775363610098807</v>
       </c>
       <c r="C4">
-        <v>-0.04983929122848649</v>
+        <v>-0.03343800646465257</v>
       </c>
       <c r="D4">
-        <v>-0.08126169239923572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07063218496331083</v>
+      </c>
+      <c r="E4">
+        <v>-0.007370027497452704</v>
+      </c>
+      <c r="F4">
+        <v>0.04099814906057077</v>
+      </c>
+      <c r="G4">
+        <v>-0.01509178023742109</v>
+      </c>
+      <c r="H4">
+        <v>0.04081023255320913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1110203623357175</v>
+        <v>0.1236596339994412</v>
       </c>
       <c r="C6">
-        <v>-0.04765732097653764</v>
+        <v>-0.03314298372498192</v>
       </c>
       <c r="D6">
-        <v>-0.006479472279834154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01067210352900679</v>
+      </c>
+      <c r="E6">
+        <v>0.02645308760970068</v>
+      </c>
+      <c r="F6">
+        <v>0.05454844075460379</v>
+      </c>
+      <c r="G6">
+        <v>-0.03255778092486177</v>
+      </c>
+      <c r="H6">
+        <v>-0.1147882834246559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05528449567478133</v>
+        <v>0.06415290609516937</v>
       </c>
       <c r="C7">
-        <v>-0.02665392705221784</v>
+        <v>-0.01206372573844794</v>
       </c>
       <c r="D7">
-        <v>-0.03354631464265564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05089023272350958</v>
+      </c>
+      <c r="E7">
+        <v>-0.03031356925100805</v>
+      </c>
+      <c r="F7">
+        <v>0.04270228023231131</v>
+      </c>
+      <c r="G7">
+        <v>0.03039071415068099</v>
+      </c>
+      <c r="H7">
+        <v>0.009914431902967816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.04076907710118777</v>
+        <v>0.04350224049236659</v>
       </c>
       <c r="C8">
-        <v>-0.01390194845108077</v>
+        <v>-0.009842214914410065</v>
       </c>
       <c r="D8">
-        <v>-0.05882450690025083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02355860020223068</v>
+      </c>
+      <c r="E8">
+        <v>-0.01191676265476222</v>
+      </c>
+      <c r="F8">
+        <v>0.06197346210491891</v>
+      </c>
+      <c r="G8">
+        <v>-0.06689364243158695</v>
+      </c>
+      <c r="H8">
+        <v>-0.01436481658288496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07132474163708047</v>
+        <v>0.08076384840934456</v>
       </c>
       <c r="C9">
-        <v>-0.03826539257753992</v>
+        <v>-0.02276378295768084</v>
       </c>
       <c r="D9">
-        <v>-0.07118313562540036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06321738388060777</v>
+      </c>
+      <c r="E9">
+        <v>-0.02379965582455262</v>
+      </c>
+      <c r="F9">
+        <v>0.03478542729248279</v>
+      </c>
+      <c r="G9">
+        <v>-0.02383469503204935</v>
+      </c>
+      <c r="H9">
+        <v>0.04641408873246149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03142628017224522</v>
+        <v>0.04596791208142209</v>
       </c>
       <c r="C10">
-        <v>-0.03218366579053501</v>
+        <v>-0.0622463676212191</v>
       </c>
       <c r="D10">
-        <v>0.1771389880688228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1755163572609906</v>
+      </c>
+      <c r="E10">
+        <v>-0.03992211001130005</v>
+      </c>
+      <c r="F10">
+        <v>0.05032804792014842</v>
+      </c>
+      <c r="G10">
+        <v>0.03696026331355177</v>
+      </c>
+      <c r="H10">
+        <v>-0.05735825749887462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07188792387260633</v>
+        <v>0.07600909855994815</v>
       </c>
       <c r="C11">
-        <v>-0.0411547647746893</v>
+        <v>-0.01947861666118214</v>
       </c>
       <c r="D11">
-        <v>-0.05415911162703944</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06603806587886263</v>
+      </c>
+      <c r="E11">
+        <v>0.005805249473591905</v>
+      </c>
+      <c r="F11">
+        <v>0.03124535588097067</v>
+      </c>
+      <c r="G11">
+        <v>-0.03496477742022976</v>
+      </c>
+      <c r="H11">
+        <v>0.07089990303213102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06101440331250491</v>
+        <v>0.06975545772421199</v>
       </c>
       <c r="C12">
-        <v>-0.04969619021027765</v>
+        <v>-0.03154875421783564</v>
       </c>
       <c r="D12">
-        <v>-0.04577837721246708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05121940457920664</v>
+      </c>
+      <c r="E12">
+        <v>-0.0102556692458976</v>
+      </c>
+      <c r="F12">
+        <v>0.0239151998337321</v>
+      </c>
+      <c r="G12">
+        <v>-0.01889662664429844</v>
+      </c>
+      <c r="H12">
+        <v>0.03329822250931527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0685374850287207</v>
+        <v>0.06829354748420235</v>
       </c>
       <c r="C13">
-        <v>-0.03329973498239975</v>
+        <v>-0.01617964257596322</v>
       </c>
       <c r="D13">
-        <v>-0.04302402764036897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03817671693269486</v>
+      </c>
+      <c r="E13">
+        <v>-0.006296722425715337</v>
+      </c>
+      <c r="F13">
+        <v>0.03038358408744706</v>
+      </c>
+      <c r="G13">
+        <v>-0.01031755801941086</v>
+      </c>
+      <c r="H13">
+        <v>0.0513575936416359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03383993675153757</v>
+        <v>0.04031171436539878</v>
       </c>
       <c r="C14">
-        <v>-0.03199340515111732</v>
+        <v>-0.02625399474347073</v>
       </c>
       <c r="D14">
-        <v>0.00831274071653912</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01375442701614899</v>
+      </c>
+      <c r="E14">
+        <v>-0.02640138406059372</v>
+      </c>
+      <c r="F14">
+        <v>0.02029470061358719</v>
+      </c>
+      <c r="G14">
+        <v>-0.02497095614256087</v>
+      </c>
+      <c r="H14">
+        <v>0.0500808129343522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04246680648663775</v>
+        <v>0.04117998902691957</v>
       </c>
       <c r="C15">
-        <v>-0.008232457921084584</v>
+        <v>-0.001531018950723557</v>
       </c>
       <c r="D15">
-        <v>-0.01971699085571559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007330843876084091</v>
+      </c>
+      <c r="E15">
+        <v>-0.03633516405568983</v>
+      </c>
+      <c r="F15">
+        <v>0.004141370384605098</v>
+      </c>
+      <c r="G15">
+        <v>-0.03309850812424577</v>
+      </c>
+      <c r="H15">
+        <v>0.02433474005391429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06105244693241685</v>
+        <v>0.07129124339236764</v>
       </c>
       <c r="C16">
-        <v>-0.03828482951942822</v>
+        <v>-0.02187956273970597</v>
       </c>
       <c r="D16">
-        <v>-0.05055824461137018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06373193416616633</v>
+      </c>
+      <c r="E16">
+        <v>-0.005032532788002982</v>
+      </c>
+      <c r="F16">
+        <v>0.03061546175865463</v>
+      </c>
+      <c r="G16">
+        <v>-0.01935212591993441</v>
+      </c>
+      <c r="H16">
+        <v>0.05186877483053016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06374447502089865</v>
+        <v>0.06278539981607893</v>
       </c>
       <c r="C20">
-        <v>-0.02381059499959882</v>
+        <v>-0.006025972105976826</v>
       </c>
       <c r="D20">
-        <v>-0.04836203184537104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04023455651682305</v>
+      </c>
+      <c r="E20">
+        <v>-0.007538196577967449</v>
+      </c>
+      <c r="F20">
+        <v>0.03181947556126751</v>
+      </c>
+      <c r="G20">
+        <v>-0.02638723258020723</v>
+      </c>
+      <c r="H20">
+        <v>0.04380789878705839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02872558365822669</v>
+        <v>0.02764276715924611</v>
       </c>
       <c r="C21">
-        <v>0.0015383764207235</v>
+        <v>0.00998546810989734</v>
       </c>
       <c r="D21">
-        <v>-0.02034381018956608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02160344541504163</v>
+      </c>
+      <c r="E21">
+        <v>-0.03943303989286091</v>
+      </c>
+      <c r="F21">
+        <v>-0.009916451733098856</v>
+      </c>
+      <c r="G21">
+        <v>-0.009360406039321615</v>
+      </c>
+      <c r="H21">
+        <v>-0.05322033035474517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.08047485129454923</v>
+        <v>0.07131872395345981</v>
       </c>
       <c r="C22">
-        <v>-0.05910536767093153</v>
+        <v>-0.03108471198655571</v>
       </c>
       <c r="D22">
-        <v>-0.1446845446525679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1052684533337305</v>
+      </c>
+      <c r="E22">
+        <v>-0.6117016342654348</v>
+      </c>
+      <c r="F22">
+        <v>-0.06465494012612778</v>
+      </c>
+      <c r="G22">
+        <v>0.1537032274942741</v>
+      </c>
+      <c r="H22">
+        <v>-0.152083208073755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08147665380846435</v>
+        <v>0.07222574168715934</v>
       </c>
       <c r="C23">
-        <v>-0.05778709026392099</v>
+        <v>-0.02973897365166097</v>
       </c>
       <c r="D23">
-        <v>-0.145802768394549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1062916675289389</v>
+      </c>
+      <c r="E23">
+        <v>-0.6137792723833955</v>
+      </c>
+      <c r="F23">
+        <v>-0.06394688267188219</v>
+      </c>
+      <c r="G23">
+        <v>0.1485995648498444</v>
+      </c>
+      <c r="H23">
+        <v>-0.1473356290680078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07684096400045409</v>
+        <v>0.08122125603777892</v>
       </c>
       <c r="C24">
-        <v>-0.04975823397747522</v>
+        <v>-0.0276120560349179</v>
       </c>
       <c r="D24">
-        <v>-0.05928866264844498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06410524088229923</v>
+      </c>
+      <c r="E24">
+        <v>-0.009711078718159983</v>
+      </c>
+      <c r="F24">
+        <v>0.04063688562263847</v>
+      </c>
+      <c r="G24">
+        <v>-0.0320631040410562</v>
+      </c>
+      <c r="H24">
+        <v>0.03713178989249397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0753372919636202</v>
+        <v>0.07986307717437287</v>
       </c>
       <c r="C25">
-        <v>-0.05201721922606896</v>
+        <v>-0.03162081106975359</v>
       </c>
       <c r="D25">
-        <v>-0.05988864223113956</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0527315208448635</v>
+      </c>
+      <c r="E25">
+        <v>-0.0178762500165154</v>
+      </c>
+      <c r="F25">
+        <v>0.03614337678451729</v>
+      </c>
+      <c r="G25">
+        <v>-0.04200982179278862</v>
+      </c>
+      <c r="H25">
+        <v>0.04426547942145046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04619321340360716</v>
+        <v>0.0459329601645217</v>
       </c>
       <c r="C26">
-        <v>-0.009203318348091093</v>
+        <v>0.0008381916610276834</v>
       </c>
       <c r="D26">
-        <v>-0.0131182953403458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02008729398452483</v>
+      </c>
+      <c r="E26">
+        <v>-0.03922173757347671</v>
+      </c>
+      <c r="F26">
+        <v>0.0391261520889459</v>
+      </c>
+      <c r="G26">
+        <v>-0.007851914579345315</v>
+      </c>
+      <c r="H26">
+        <v>0.04322843563239951</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04896002490141938</v>
+        <v>0.07068388802860763</v>
       </c>
       <c r="C28">
-        <v>-0.07455473337315813</v>
+        <v>-0.1174665819892957</v>
       </c>
       <c r="D28">
-        <v>0.3009858273321772</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2946539927947359</v>
+      </c>
+      <c r="E28">
+        <v>-0.03646952223499194</v>
+      </c>
+      <c r="F28">
+        <v>0.06161226861899707</v>
+      </c>
+      <c r="G28">
+        <v>-0.02324031654616453</v>
+      </c>
+      <c r="H28">
+        <v>-0.04838439679510587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0454441992037222</v>
+        <v>0.04759190546933509</v>
       </c>
       <c r="C29">
-        <v>-0.02960643688448436</v>
+        <v>-0.02152637495781313</v>
       </c>
       <c r="D29">
-        <v>-0.002472565797500665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.012480531791187</v>
+      </c>
+      <c r="E29">
+        <v>-0.05690387859373647</v>
+      </c>
+      <c r="F29">
+        <v>0.01569712254534228</v>
+      </c>
+      <c r="G29">
+        <v>-0.01191240909048653</v>
+      </c>
+      <c r="H29">
+        <v>0.06302313381126068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.129293141751394</v>
+        <v>0.1263468151061826</v>
       </c>
       <c r="C30">
-        <v>-0.08419003776068923</v>
+        <v>-0.05176915113675182</v>
       </c>
       <c r="D30">
-        <v>-0.1167160583769293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08325577089982422</v>
+      </c>
+      <c r="E30">
+        <v>-0.0587665242482004</v>
+      </c>
+      <c r="F30">
+        <v>0.01689593411757392</v>
+      </c>
+      <c r="G30">
+        <v>-0.08696865405098579</v>
+      </c>
+      <c r="H30">
+        <v>-0.02561364797055131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04838168592969892</v>
+        <v>0.04926821418522088</v>
       </c>
       <c r="C31">
-        <v>-0.02222082217894026</v>
+        <v>-0.009050624578994828</v>
       </c>
       <c r="D31">
-        <v>-0.02107270185100266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03511498937240432</v>
+      </c>
+      <c r="E31">
+        <v>-0.02434931585207217</v>
+      </c>
+      <c r="F31">
+        <v>0.008054000349460178</v>
+      </c>
+      <c r="G31">
+        <v>0.006208785355924117</v>
+      </c>
+      <c r="H31">
+        <v>0.07038544505448503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03716830468978888</v>
+        <v>0.03990304207953561</v>
       </c>
       <c r="C32">
-        <v>-0.024173101124738</v>
+        <v>-0.02294192346753283</v>
       </c>
       <c r="D32">
-        <v>-0.02581953984701376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01039624217448708</v>
+      </c>
+      <c r="E32">
+        <v>-0.05590603710898329</v>
+      </c>
+      <c r="F32">
+        <v>-0.005396796105408884</v>
+      </c>
+      <c r="G32">
+        <v>-0.03488836828831426</v>
+      </c>
+      <c r="H32">
+        <v>0.03479370569092094</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08651239171536802</v>
+        <v>0.09453370593675889</v>
       </c>
       <c r="C33">
-        <v>-0.03926260628549891</v>
+        <v>-0.018788159763939</v>
       </c>
       <c r="D33">
-        <v>-0.05110052246019681</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04968439471390505</v>
+      </c>
+      <c r="E33">
+        <v>-0.01474516350031121</v>
+      </c>
+      <c r="F33">
+        <v>0.007833035605790239</v>
+      </c>
+      <c r="G33">
+        <v>-0.01705813408813152</v>
+      </c>
+      <c r="H33">
+        <v>0.06556636996215513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0591698756540612</v>
+        <v>0.06409154535777258</v>
       </c>
       <c r="C34">
-        <v>-0.02359582452574634</v>
+        <v>-0.006932645069940797</v>
       </c>
       <c r="D34">
-        <v>-0.05197650143811442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04990001904571652</v>
+      </c>
+      <c r="E34">
+        <v>-0.006527078581021928</v>
+      </c>
+      <c r="F34">
+        <v>0.02527315622935813</v>
+      </c>
+      <c r="G34">
+        <v>-0.01951464303861066</v>
+      </c>
+      <c r="H34">
+        <v>0.05101578188265267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03695794299762269</v>
+        <v>0.03803056693729417</v>
       </c>
       <c r="C35">
-        <v>-0.007127842605542921</v>
+        <v>-0.0009451961810550607</v>
       </c>
       <c r="D35">
-        <v>-0.02029410674610134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01646813299508264</v>
+      </c>
+      <c r="E35">
+        <v>-0.02154887996438192</v>
+      </c>
+      <c r="F35">
+        <v>-0.01653023623714979</v>
+      </c>
+      <c r="G35">
+        <v>-0.002357626914891716</v>
+      </c>
+      <c r="H35">
+        <v>0.02512408090766643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02493552086219875</v>
+        <v>0.02905876011273792</v>
       </c>
       <c r="C36">
-        <v>-0.0179582661416662</v>
+        <v>-0.01334088944848887</v>
       </c>
       <c r="D36">
-        <v>-0.02013660571055262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01829229815445545</v>
+      </c>
+      <c r="E36">
+        <v>-0.02911182636462097</v>
+      </c>
+      <c r="F36">
+        <v>0.03195491270146794</v>
+      </c>
+      <c r="G36">
+        <v>-0.00463600228754237</v>
+      </c>
+      <c r="H36">
+        <v>0.04590739323672031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04509186110419033</v>
+        <v>0.04656112648568016</v>
       </c>
       <c r="C38">
-        <v>-0.002508604317605672</v>
+        <v>0.004865712196611693</v>
       </c>
       <c r="D38">
-        <v>-0.0178050872023304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01827127761127533</v>
+      </c>
+      <c r="E38">
+        <v>-0.05105734876809254</v>
+      </c>
+      <c r="F38">
+        <v>0.001502820859721553</v>
+      </c>
+      <c r="G38">
+        <v>-0.003987496792947019</v>
+      </c>
+      <c r="H38">
+        <v>0.023877276030392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.090021933817788</v>
+        <v>0.09906143082173377</v>
       </c>
       <c r="C39">
-        <v>-0.0661364477679431</v>
+        <v>-0.04287028136389259</v>
       </c>
       <c r="D39">
-        <v>-0.06211579148524406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07064978502474752</v>
+      </c>
+      <c r="E39">
+        <v>4.92821419407651e-05</v>
+      </c>
+      <c r="F39">
+        <v>0.0004765463800856865</v>
+      </c>
+      <c r="G39">
+        <v>-0.05472733018221705</v>
+      </c>
+      <c r="H39">
+        <v>0.03155166054851542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08163459843515687</v>
+        <v>0.06358851505726401</v>
       </c>
       <c r="C40">
-        <v>-0.03347230841843114</v>
+        <v>-0.003261837692244481</v>
       </c>
       <c r="D40">
-        <v>-0.01385545491120981</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03289844553614071</v>
+      </c>
+      <c r="E40">
+        <v>-0.03483084280194085</v>
+      </c>
+      <c r="F40">
+        <v>-0.0333836410383177</v>
+      </c>
+      <c r="G40">
+        <v>-0.05163541327377318</v>
+      </c>
+      <c r="H40">
+        <v>-0.07504503154817631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04500468381989874</v>
+        <v>0.04648545513421496</v>
       </c>
       <c r="C41">
-        <v>-0.003844125976577918</v>
+        <v>0.0070537607453518</v>
       </c>
       <c r="D41">
-        <v>-0.03876731845959648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03179691296187167</v>
+      </c>
+      <c r="E41">
+        <v>-0.002278524334964247</v>
+      </c>
+      <c r="F41">
+        <v>-0.01159880874585365</v>
+      </c>
+      <c r="G41">
+        <v>-0.01585947786883885</v>
+      </c>
+      <c r="H41">
+        <v>0.0199715622321285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05410747043142165</v>
+        <v>0.06069495929254926</v>
       </c>
       <c r="C43">
-        <v>-0.02483725881962558</v>
+        <v>-0.01381760374943447</v>
       </c>
       <c r="D43">
-        <v>-0.01360548261976943</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02847860322794905</v>
+      </c>
+      <c r="E43">
+        <v>-0.02166540700950672</v>
+      </c>
+      <c r="F43">
+        <v>0.01787052429839026</v>
+      </c>
+      <c r="G43">
+        <v>0.007843115285282282</v>
+      </c>
+      <c r="H43">
+        <v>0.05977648197915328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09634835658734946</v>
+        <v>0.09405826643806681</v>
       </c>
       <c r="C44">
-        <v>-0.08023690051799055</v>
+        <v>-0.05060569458633548</v>
       </c>
       <c r="D44">
-        <v>-0.07952111104397586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07345846222522044</v>
+      </c>
+      <c r="E44">
+        <v>-0.05945896209144954</v>
+      </c>
+      <c r="F44">
+        <v>0.09844685975932363</v>
+      </c>
+      <c r="G44">
+        <v>-0.05676687975937457</v>
+      </c>
+      <c r="H44">
+        <v>0.09398121504100859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02804595254869538</v>
+        <v>0.03579755027376601</v>
       </c>
       <c r="C46">
-        <v>-0.01467692511059749</v>
+        <v>-0.008592144996984118</v>
       </c>
       <c r="D46">
-        <v>-0.03245366417260458</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03646771872857861</v>
+      </c>
+      <c r="E46">
+        <v>-0.03071557552599007</v>
+      </c>
+      <c r="F46">
+        <v>0.01450887883421887</v>
+      </c>
+      <c r="G46">
+        <v>-0.0067633206485249</v>
+      </c>
+      <c r="H46">
+        <v>0.01608987749010485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03556975107820733</v>
+        <v>0.04165386408984786</v>
       </c>
       <c r="C47">
-        <v>-0.02392847352427223</v>
+        <v>-0.01849393566024804</v>
       </c>
       <c r="D47">
-        <v>-0.0002869116346385858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007403444194511661</v>
+      </c>
+      <c r="E47">
+        <v>-0.03951942691298536</v>
+      </c>
+      <c r="F47">
+        <v>-0.008750853431542482</v>
+      </c>
+      <c r="G47">
+        <v>0.03031766781914612</v>
+      </c>
+      <c r="H47">
+        <v>0.02692999205548087</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03672941658155341</v>
+        <v>0.03986466940947551</v>
       </c>
       <c r="C48">
-        <v>-0.01851748807373011</v>
+        <v>-0.01001932962614305</v>
       </c>
       <c r="D48">
-        <v>-0.03119253922674384</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02088609854311359</v>
+      </c>
+      <c r="E48">
+        <v>-0.03785285504157439</v>
+      </c>
+      <c r="F48">
+        <v>0.01329309776165385</v>
+      </c>
+      <c r="G48">
+        <v>-0.02135789934533732</v>
+      </c>
+      <c r="H48">
+        <v>0.02476762015506146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1642308207225881</v>
+        <v>0.1987448185926517</v>
       </c>
       <c r="C49">
-        <v>-0.04626255591507874</v>
+        <v>-0.02856452498977486</v>
       </c>
       <c r="D49">
-        <v>-0.005502237871425079</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02618738021526359</v>
+      </c>
+      <c r="E49">
+        <v>0.1691872105802724</v>
+      </c>
+      <c r="F49">
+        <v>0.03575741008209212</v>
+      </c>
+      <c r="G49">
+        <v>0.1348212241090944</v>
+      </c>
+      <c r="H49">
+        <v>-0.2447328395191535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04303904893519475</v>
+        <v>0.04568461155632871</v>
       </c>
       <c r="C50">
-        <v>-0.02050772943308208</v>
+        <v>-0.009542720538598551</v>
       </c>
       <c r="D50">
-        <v>-0.03932484499013193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.04027710090441276</v>
+      </c>
+      <c r="E50">
+        <v>-0.0369305688279039</v>
+      </c>
+      <c r="F50">
+        <v>0.008115597847653047</v>
+      </c>
+      <c r="G50">
+        <v>-0.0009823083418000634</v>
+      </c>
+      <c r="H50">
+        <v>0.07688641960723677</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02957129122434691</v>
+        <v>0.03514205255187966</v>
       </c>
       <c r="C51">
-        <v>-0.01035721780409155</v>
+        <v>-0.005818696425259611</v>
       </c>
       <c r="D51">
-        <v>-0.0002956030409314729</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001400822775036007</v>
+      </c>
+      <c r="E51">
+        <v>-0.01053532796047753</v>
+      </c>
+      <c r="F51">
+        <v>0.01087530425581012</v>
+      </c>
+      <c r="G51">
+        <v>0.01715605835625471</v>
+      </c>
+      <c r="H51">
+        <v>-0.01767331406531419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1554385692022059</v>
+        <v>0.1600445446028621</v>
       </c>
       <c r="C53">
-        <v>-0.07057383644534936</v>
+        <v>-0.04232669123318493</v>
       </c>
       <c r="D53">
-        <v>0.0004402211933444382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02799030350160474</v>
+      </c>
+      <c r="E53">
+        <v>0.03144964880286977</v>
+      </c>
+      <c r="F53">
+        <v>-0.0001784080285337638</v>
+      </c>
+      <c r="G53">
+        <v>-0.01621984282364878</v>
+      </c>
+      <c r="H53">
+        <v>0.1997311280146903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0575579025197837</v>
+        <v>0.05807845118651421</v>
       </c>
       <c r="C54">
-        <v>-0.01970521341226458</v>
+        <v>-0.009972346752318386</v>
       </c>
       <c r="D54">
-        <v>-0.01821970556690776</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01551578431723257</v>
+      </c>
+      <c r="E54">
+        <v>-0.05115742904388249</v>
+      </c>
+      <c r="F54">
+        <v>0.01601859797379644</v>
+      </c>
+      <c r="G54">
+        <v>-0.04984375482712192</v>
+      </c>
+      <c r="H54">
+        <v>0.03684206641068647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1030899418018043</v>
+        <v>0.1039193792967575</v>
       </c>
       <c r="C55">
-        <v>-0.04995125684936384</v>
+        <v>-0.02919299815369729</v>
       </c>
       <c r="D55">
-        <v>-0.01788859342750625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.031173239729192</v>
+      </c>
+      <c r="E55">
+        <v>-0.002040108428930692</v>
+      </c>
+      <c r="F55">
+        <v>0.01407138360701844</v>
+      </c>
+      <c r="G55">
+        <v>-0.02078892869178347</v>
+      </c>
+      <c r="H55">
+        <v>0.158758234042247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1520872129270536</v>
+        <v>0.1579814516512706</v>
       </c>
       <c r="C56">
-        <v>-0.08112657659168442</v>
+        <v>-0.04944571352193965</v>
       </c>
       <c r="D56">
-        <v>-0.003588232505124829</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04174088103669973</v>
+      </c>
+      <c r="E56">
+        <v>0.01433715880465256</v>
+      </c>
+      <c r="F56">
+        <v>0.02162465465179809</v>
+      </c>
+      <c r="G56">
+        <v>-0.0133300688081464</v>
+      </c>
+      <c r="H56">
+        <v>0.201577891915534</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1326454950354826</v>
+        <v>0.1000261504433988</v>
       </c>
       <c r="C58">
-        <v>0.009924740102641945</v>
+        <v>0.0508862521831944</v>
       </c>
       <c r="D58">
-        <v>-0.04599905727731733</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03159021167431465</v>
+      </c>
+      <c r="E58">
+        <v>-0.124188341372754</v>
+      </c>
+      <c r="F58">
+        <v>0.01773590317586769</v>
+      </c>
+      <c r="G58">
+        <v>0.08402106024065376</v>
+      </c>
+      <c r="H58">
+        <v>-0.1451604706796075</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.123695778059556</v>
+        <v>0.1472380718687799</v>
       </c>
       <c r="C59">
-        <v>-0.08245225367379122</v>
+        <v>-0.1218336554041676</v>
       </c>
       <c r="D59">
-        <v>0.3915130582508063</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3506355120428052</v>
+      </c>
+      <c r="E59">
+        <v>-0.03368934395925856</v>
+      </c>
+      <c r="F59">
+        <v>0.005550733544258047</v>
+      </c>
+      <c r="G59">
+        <v>0.008991179276845557</v>
+      </c>
+      <c r="H59">
+        <v>0.01311176871518065</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2107529540469457</v>
+        <v>0.2391524956567144</v>
       </c>
       <c r="C60">
-        <v>-0.08710929610167863</v>
+        <v>-0.05373210474159678</v>
       </c>
       <c r="D60">
-        <v>-0.01610093789056003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04652250736704289</v>
+      </c>
+      <c r="E60">
+        <v>0.1154743264016415</v>
+      </c>
+      <c r="F60">
+        <v>0.04416979184965812</v>
+      </c>
+      <c r="G60">
+        <v>0.01805179163420936</v>
+      </c>
+      <c r="H60">
+        <v>-0.1422456616440945</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08104736454983856</v>
+        <v>0.08658897783112239</v>
       </c>
       <c r="C61">
-        <v>-0.04475162363518123</v>
+        <v>-0.02706050139617624</v>
       </c>
       <c r="D61">
-        <v>-0.03463664466504616</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04472096424501418</v>
+      </c>
+      <c r="E61">
+        <v>-0.005297085293992515</v>
+      </c>
+      <c r="F61">
+        <v>0.005193412021276328</v>
+      </c>
+      <c r="G61">
+        <v>-0.0238430159779361</v>
+      </c>
+      <c r="H61">
+        <v>0.06284113804665004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1336211536734714</v>
+        <v>0.1364360053904741</v>
       </c>
       <c r="C62">
-        <v>-0.0545852389323989</v>
+        <v>-0.02453274080420165</v>
       </c>
       <c r="D62">
-        <v>-0.006073020282377407</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04514936768373335</v>
+      </c>
+      <c r="E62">
+        <v>0.04962692670590393</v>
+      </c>
+      <c r="F62">
+        <v>-0.006085770749127696</v>
+      </c>
+      <c r="G62">
+        <v>-0.05064939868836366</v>
+      </c>
+      <c r="H62">
+        <v>0.2022103470413861</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05293750648176292</v>
+        <v>0.05215968668115364</v>
       </c>
       <c r="C63">
-        <v>-0.02253949411203957</v>
+        <v>-0.01260379559232818</v>
       </c>
       <c r="D63">
-        <v>-0.02464388837622407</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02093574421733309</v>
+      </c>
+      <c r="E63">
+        <v>-0.04315889798394699</v>
+      </c>
+      <c r="F63">
+        <v>-0.001772860481571231</v>
+      </c>
+      <c r="G63">
+        <v>-0.02740290272947297</v>
+      </c>
+      <c r="H63">
+        <v>0.03186377142924008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1052213223109326</v>
+        <v>0.1087535797877515</v>
       </c>
       <c r="C64">
-        <v>-0.02746325962841328</v>
+        <v>-0.01047206022854997</v>
       </c>
       <c r="D64">
-        <v>-0.02691224582063246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02908247120723721</v>
+      </c>
+      <c r="E64">
+        <v>-0.03312081408900738</v>
+      </c>
+      <c r="F64">
+        <v>0.04560685156767508</v>
+      </c>
+      <c r="G64">
+        <v>-0.06537585288756394</v>
+      </c>
+      <c r="H64">
+        <v>0.02319142595504212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1281516564268871</v>
+        <v>0.1289074074091224</v>
       </c>
       <c r="C65">
-        <v>-0.0553519813164625</v>
+        <v>-0.03724496988249094</v>
       </c>
       <c r="D65">
-        <v>-0.01126690960852724</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0131496624250505</v>
+      </c>
+      <c r="E65">
+        <v>0.008305218981752965</v>
+      </c>
+      <c r="F65">
+        <v>0.04168721754150579</v>
+      </c>
+      <c r="G65">
+        <v>-0.06526877235985364</v>
+      </c>
+      <c r="H65">
+        <v>-0.1363655081040334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1490776007199782</v>
+        <v>0.1515801897494429</v>
       </c>
       <c r="C66">
-        <v>-0.065245876128033</v>
+        <v>-0.02882097257296602</v>
       </c>
       <c r="D66">
-        <v>-0.09871299571183578</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1023632024961889</v>
+      </c>
+      <c r="E66">
+        <v>0.02631098906728745</v>
+      </c>
+      <c r="F66">
+        <v>0.0008219292454500957</v>
+      </c>
+      <c r="G66">
+        <v>-0.06964884476886087</v>
+      </c>
+      <c r="H66">
+        <v>0.09253246231478697</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07638617783586467</v>
+        <v>0.08592125513851849</v>
       </c>
       <c r="C67">
-        <v>-0.008280834967699999</v>
+        <v>0.003206195645649187</v>
       </c>
       <c r="D67">
-        <v>-0.02279104590423644</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03171990148743232</v>
+      </c>
+      <c r="E67">
+        <v>-0.02133112748701345</v>
+      </c>
+      <c r="F67">
+        <v>0.01632979789143302</v>
+      </c>
+      <c r="G67">
+        <v>0.01057797965141424</v>
+      </c>
+      <c r="H67">
+        <v>0.021813440788761</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05730455578093284</v>
+        <v>0.06451980303545408</v>
       </c>
       <c r="C68">
-        <v>-0.05361312748641694</v>
+        <v>-0.089181619421056</v>
       </c>
       <c r="D68">
-        <v>0.2570123016632425</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609494982306036</v>
+      </c>
+      <c r="E68">
+        <v>-0.04656943499795486</v>
+      </c>
+      <c r="F68">
+        <v>0.01918679844812355</v>
+      </c>
+      <c r="G68">
+        <v>0.005146589378327113</v>
+      </c>
+      <c r="H68">
+        <v>0.02113508087959483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0539409205597104</v>
+        <v>0.05269631235049911</v>
       </c>
       <c r="C69">
-        <v>-0.01506953785806967</v>
+        <v>-0.002216610314057641</v>
       </c>
       <c r="D69">
-        <v>-0.02557970779039333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02053933999573656</v>
+      </c>
+      <c r="E69">
+        <v>-0.02346365211199212</v>
+      </c>
+      <c r="F69">
+        <v>-0.0122631050903938</v>
+      </c>
+      <c r="G69">
+        <v>0.001682609916932859</v>
+      </c>
+      <c r="H69">
+        <v>0.04725984392524985</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.002849786335932857</v>
+        <v>0.02803414065197435</v>
       </c>
       <c r="C70">
-        <v>0.005504034710059356</v>
+        <v>0.001429495443222743</v>
       </c>
       <c r="D70">
-        <v>0.01345131209706432</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.008155635897398369</v>
+      </c>
+      <c r="E70">
+        <v>0.0216681516503376</v>
+      </c>
+      <c r="F70">
+        <v>-0.00808875988977876</v>
+      </c>
+      <c r="G70">
+        <v>0.02692301532098591</v>
+      </c>
+      <c r="H70">
+        <v>-0.03910619447329495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05644003224473822</v>
+        <v>0.06976545270063865</v>
       </c>
       <c r="C71">
-        <v>-0.05309545608257982</v>
+        <v>-0.09779980574322888</v>
       </c>
       <c r="D71">
-        <v>0.2914406018786603</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2885522601822775</v>
+      </c>
+      <c r="E71">
+        <v>-0.0434000682697499</v>
+      </c>
+      <c r="F71">
+        <v>0.04760335056921881</v>
+      </c>
+      <c r="G71">
+        <v>-0.005984053123960242</v>
+      </c>
+      <c r="H71">
+        <v>0.01337337236648133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1431599334736994</v>
+        <v>0.144273876014717</v>
       </c>
       <c r="C72">
-        <v>-0.05631034717603561</v>
+        <v>-0.02894295266641046</v>
       </c>
       <c r="D72">
-        <v>0.001138306708662743</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.004968295928385352</v>
+      </c>
+      <c r="E72">
+        <v>0.05340868004655296</v>
+      </c>
+      <c r="F72">
+        <v>-0.1536996579614864</v>
+      </c>
+      <c r="G72">
+        <v>-0.1182863415413768</v>
+      </c>
+      <c r="H72">
+        <v>0.0003383089202721961</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2882183751561204</v>
+        <v>0.2904104034760909</v>
       </c>
       <c r="C73">
-        <v>-0.08772502124158896</v>
+        <v>-0.01936771938352279</v>
       </c>
       <c r="D73">
-        <v>-0.04361947366479477</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09411598405579773</v>
+      </c>
+      <c r="E73">
+        <v>0.2565831433518236</v>
+      </c>
+      <c r="F73">
+        <v>0.07227161009763237</v>
+      </c>
+      <c r="G73">
+        <v>0.2497457825120251</v>
+      </c>
+      <c r="H73">
+        <v>-0.4082430578906887</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08484560270736762</v>
+        <v>0.09262146587580677</v>
       </c>
       <c r="C74">
-        <v>-0.07402023628120019</v>
+        <v>-0.05345226490094752</v>
       </c>
       <c r="D74">
-        <v>-0.006562600389885602</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03970793660724644</v>
+      </c>
+      <c r="E74">
+        <v>0.00499422248073336</v>
+      </c>
+      <c r="F74">
+        <v>-0.001245079171697875</v>
+      </c>
+      <c r="G74">
+        <v>0.02199500062463423</v>
+      </c>
+      <c r="H74">
+        <v>0.1300192311041719</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1005607121190975</v>
+        <v>0.1031215221895895</v>
       </c>
       <c r="C75">
-        <v>-0.04613590497429683</v>
+        <v>-0.0206544957311788</v>
       </c>
       <c r="D75">
-        <v>-0.01572582266387163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02573981957527223</v>
+      </c>
+      <c r="E75">
+        <v>0.001038328086075303</v>
+      </c>
+      <c r="F75">
+        <v>-0.0007160979827244683</v>
+      </c>
+      <c r="G75">
+        <v>0.008743619421367081</v>
+      </c>
+      <c r="H75">
+        <v>0.09888438667035657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1344097978957029</v>
+        <v>0.1421730415215507</v>
       </c>
       <c r="C76">
-        <v>-0.07639476460209188</v>
+        <v>-0.04851474489211755</v>
       </c>
       <c r="D76">
-        <v>-0.02554364444459011</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05444021900376626</v>
+      </c>
+      <c r="E76">
+        <v>-0.01470600531024209</v>
+      </c>
+      <c r="F76">
+        <v>0.03171244990773126</v>
+      </c>
+      <c r="G76">
+        <v>-0.02629801634282278</v>
+      </c>
+      <c r="H76">
+        <v>0.217087675838803</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1171615071098674</v>
+        <v>0.1022867264261051</v>
       </c>
       <c r="C77">
-        <v>-0.006857962398345444</v>
+        <v>0.02435750037427828</v>
       </c>
       <c r="D77">
-        <v>-0.08446171996083017</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03631765719562945</v>
+      </c>
+      <c r="E77">
+        <v>-0.04165019504887234</v>
+      </c>
+      <c r="F77">
+        <v>0.07833484457432305</v>
+      </c>
+      <c r="G77">
+        <v>-0.8037322868044849</v>
+      </c>
+      <c r="H77">
+        <v>-0.344978996748717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1081556213586652</v>
+        <v>0.1519991020640672</v>
       </c>
       <c r="C78">
-        <v>-0.03404213864056398</v>
+        <v>-0.02681346412013107</v>
       </c>
       <c r="D78">
-        <v>-0.09458775584069251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08189401207775089</v>
+      </c>
+      <c r="E78">
+        <v>-0.05150696258124328</v>
+      </c>
+      <c r="F78">
+        <v>0.05715323999514044</v>
+      </c>
+      <c r="G78">
+        <v>-0.05714658204964426</v>
+      </c>
+      <c r="H78">
+        <v>-0.05980257372452812</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1481874741047483</v>
+        <v>0.1483051654118728</v>
       </c>
       <c r="C79">
-        <v>-0.0638771106950025</v>
+        <v>-0.02977958679918054</v>
       </c>
       <c r="D79">
-        <v>-0.02400383563999471</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04042862886423666</v>
+      </c>
+      <c r="E79">
+        <v>0.01663294427658615</v>
+      </c>
+      <c r="F79">
+        <v>0.01841164578109229</v>
+      </c>
+      <c r="G79">
+        <v>-0.02036169524806893</v>
+      </c>
+      <c r="H79">
+        <v>0.1553414974543235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04134231917909928</v>
+        <v>0.04158138013884635</v>
       </c>
       <c r="C80">
-        <v>-0.01833073139024012</v>
+        <v>-0.01044232367631869</v>
       </c>
       <c r="D80">
-        <v>-0.03251438446419022</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01624167960319654</v>
+      </c>
+      <c r="E80">
+        <v>0.03971980124266958</v>
+      </c>
+      <c r="F80">
+        <v>0.002169022672378574</v>
+      </c>
+      <c r="G80">
+        <v>0.01945341313823767</v>
+      </c>
+      <c r="H80">
+        <v>0.03840625910389486</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1239497413563438</v>
+        <v>0.1252078054469732</v>
       </c>
       <c r="C81">
-        <v>-0.05568621031880443</v>
+        <v>-0.02974921787138945</v>
       </c>
       <c r="D81">
-        <v>-0.02902929826501078</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03080153379725034</v>
+      </c>
+      <c r="E81">
+        <v>-0.008036572794286519</v>
+      </c>
+      <c r="F81">
+        <v>0.01356768755801412</v>
+      </c>
+      <c r="G81">
+        <v>0.01299754743093104</v>
+      </c>
+      <c r="H81">
+        <v>0.1455135536188643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1338191568477254</v>
+        <v>0.1309586290590398</v>
       </c>
       <c r="C82">
-        <v>-0.06863577583909131</v>
+        <v>-0.03984786550764949</v>
       </c>
       <c r="D82">
-        <v>-0.005464802607397076</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03856014453969455</v>
+      </c>
+      <c r="E82">
+        <v>0.0224075952684372</v>
+      </c>
+      <c r="F82">
+        <v>0.04009074887354446</v>
+      </c>
+      <c r="G82">
+        <v>0.009283298898526316</v>
+      </c>
+      <c r="H82">
+        <v>0.2184110568484095</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06545854437773448</v>
+        <v>0.08034761891917991</v>
       </c>
       <c r="C83">
-        <v>0.03046210912875073</v>
+        <v>0.04101208925907478</v>
       </c>
       <c r="D83">
-        <v>-0.02246342644854009</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02022454431947986</v>
+      </c>
+      <c r="E83">
+        <v>-0.02378518198025645</v>
+      </c>
+      <c r="F83">
+        <v>0.03386163892809881</v>
+      </c>
+      <c r="G83">
+        <v>0.07326323442987513</v>
+      </c>
+      <c r="H83">
+        <v>-0.030436666965045</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02859554800929264</v>
+        <v>0.03575861384744054</v>
       </c>
       <c r="C84">
-        <v>-0.02957985772975368</v>
+        <v>-0.01949161178522238</v>
       </c>
       <c r="D84">
-        <v>-0.03327540050459237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03796014060453226</v>
+      </c>
+      <c r="E84">
+        <v>-0.0196249066819937</v>
+      </c>
+      <c r="F84">
+        <v>-0.03730509150430376</v>
+      </c>
+      <c r="G84">
+        <v>0.04099016727763894</v>
+      </c>
+      <c r="H84">
+        <v>0.0323693279581103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1190373471227747</v>
+        <v>0.1215371502458762</v>
       </c>
       <c r="C85">
-        <v>-0.03819580459750499</v>
+        <v>-0.01376667108237955</v>
       </c>
       <c r="D85">
-        <v>-0.05054774465929687</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03990260411106008</v>
+      </c>
+      <c r="E85">
+        <v>-0.01723664130476873</v>
+      </c>
+      <c r="F85">
+        <v>0.03120262849197393</v>
+      </c>
+      <c r="G85">
+        <v>0.008228522441027411</v>
+      </c>
+      <c r="H85">
+        <v>0.1446006511675206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05277745931873663</v>
+        <v>0.05640245725797476</v>
       </c>
       <c r="C86">
-        <v>-0.02104369469694089</v>
+        <v>-0.007250117121914833</v>
       </c>
       <c r="D86">
-        <v>-0.06177340722237371</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03644151402588081</v>
+      </c>
+      <c r="E86">
+        <v>-0.04204376249681403</v>
+      </c>
+      <c r="F86">
+        <v>0.02451012894831213</v>
+      </c>
+      <c r="G86">
+        <v>0.04118437606845814</v>
+      </c>
+      <c r="H86">
+        <v>-0.0370150757151571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1235445951682106</v>
+        <v>0.125501967550903</v>
       </c>
       <c r="C87">
-        <v>-0.06651376050268373</v>
+        <v>-0.03021335628698413</v>
       </c>
       <c r="D87">
-        <v>-0.07141110813169356</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07000706894219473</v>
+      </c>
+      <c r="E87">
+        <v>-0.01540691238245297</v>
+      </c>
+      <c r="F87">
+        <v>0.01917842454505359</v>
+      </c>
+      <c r="G87">
+        <v>-0.1398577748657702</v>
+      </c>
+      <c r="H87">
+        <v>-0.07297328605901134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05443949361434717</v>
+        <v>0.06286423153931323</v>
       </c>
       <c r="C88">
-        <v>-0.02708671657584336</v>
+        <v>-0.01604859796291889</v>
       </c>
       <c r="D88">
-        <v>-0.0260622769259838</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03895378360448414</v>
+      </c>
+      <c r="E88">
+        <v>-0.007151018400156968</v>
+      </c>
+      <c r="F88">
+        <v>0.02057338019088416</v>
+      </c>
+      <c r="G88">
+        <v>-0.01614795980894577</v>
+      </c>
+      <c r="H88">
+        <v>0.038719335740172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08691436582555505</v>
+        <v>0.1079642524937294</v>
       </c>
       <c r="C89">
-        <v>-0.07633696353561457</v>
+        <v>-0.1262505925520995</v>
       </c>
       <c r="D89">
-        <v>0.3193031983246222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.336949924867345</v>
+      </c>
+      <c r="E89">
+        <v>-0.0622029546385159</v>
+      </c>
+      <c r="F89">
+        <v>0.07799540840888983</v>
+      </c>
+      <c r="G89">
+        <v>0.01796975930850147</v>
+      </c>
+      <c r="H89">
+        <v>0.01265477527786653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.06795772876281622</v>
+        <v>0.08400556365026772</v>
       </c>
       <c r="C90">
-        <v>-0.0637635161979926</v>
+        <v>-0.103107816799756</v>
       </c>
       <c r="D90">
-        <v>0.2796988545431339</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2778421689763569</v>
+      </c>
+      <c r="E90">
+        <v>-0.05128305298336455</v>
+      </c>
+      <c r="F90">
+        <v>0.03617518817423143</v>
+      </c>
+      <c r="G90">
+        <v>-0.02460745297508246</v>
+      </c>
+      <c r="H90">
+        <v>-0.003453818586799458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.09043706406463507</v>
+        <v>0.09140498780219361</v>
       </c>
       <c r="C91">
-        <v>-0.04909369931963877</v>
+        <v>-0.02518721151391448</v>
       </c>
       <c r="D91">
-        <v>-0.01516534174134395</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03352196688786494</v>
+      </c>
+      <c r="E91">
+        <v>-0.00751022008381927</v>
+      </c>
+      <c r="F91">
+        <v>-0.0001534873414301569</v>
+      </c>
+      <c r="G91">
+        <v>0.03049134518398589</v>
+      </c>
+      <c r="H91">
+        <v>0.08985133490646936</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07207663516665441</v>
+        <v>0.0861559668686398</v>
       </c>
       <c r="C92">
-        <v>-0.07853971250015937</v>
+        <v>-0.1249478758623113</v>
       </c>
       <c r="D92">
-        <v>0.339840242784903</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.329714571871827</v>
+      </c>
+      <c r="E92">
+        <v>-0.05057291040256879</v>
+      </c>
+      <c r="F92">
+        <v>0.03369365714895766</v>
+      </c>
+      <c r="G92">
+        <v>-0.01013951233038163</v>
+      </c>
+      <c r="H92">
+        <v>0.0175947758579324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06390494503945231</v>
+        <v>0.08227516888110833</v>
       </c>
       <c r="C93">
-        <v>-0.06842845642259165</v>
+        <v>-0.1141294828111406</v>
       </c>
       <c r="D93">
-        <v>0.2991691617838917</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2928889315349341</v>
+      </c>
+      <c r="E93">
+        <v>-0.02538411714542031</v>
+      </c>
+      <c r="F93">
+        <v>0.03105041030322059</v>
+      </c>
+      <c r="G93">
+        <v>-0.01298950852841381</v>
+      </c>
+      <c r="H93">
+        <v>0.004844971888641053</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1354872697127414</v>
+        <v>0.1296168031763742</v>
       </c>
       <c r="C94">
-        <v>-0.04161066225893796</v>
+        <v>-0.00784720627211063</v>
       </c>
       <c r="D94">
-        <v>-0.04488909308412534</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04982418762863565</v>
+      </c>
+      <c r="E94">
+        <v>0.01927020209126746</v>
+      </c>
+      <c r="F94">
+        <v>0.01171282797738466</v>
+      </c>
+      <c r="G94">
+        <v>0.0474479746933703</v>
+      </c>
+      <c r="H94">
+        <v>0.1132712793675683</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1223302264115401</v>
+        <v>0.1298301083805589</v>
       </c>
       <c r="C95">
-        <v>-0.01656041736789584</v>
+        <v>0.00989179421372019</v>
       </c>
       <c r="D95">
-        <v>-0.05355490038904777</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.05726927931651467</v>
+      </c>
+      <c r="E95">
+        <v>-0.005124930163128831</v>
+      </c>
+      <c r="F95">
+        <v>0.04737400082535181</v>
+      </c>
+      <c r="G95">
+        <v>-0.01354949447165684</v>
+      </c>
+      <c r="H95">
+        <v>-0.09671184591081826</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2224234888337881</v>
+        <v>0.1977600936489419</v>
       </c>
       <c r="C97">
-        <v>-0.03865386981364122</v>
+        <v>0.008800421637624055</v>
       </c>
       <c r="D97">
-        <v>0.09557307742268328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.07214728531586524</v>
+      </c>
+      <c r="E97">
+        <v>0.06218253102012931</v>
+      </c>
+      <c r="F97">
+        <v>-0.9341001891551385</v>
+      </c>
+      <c r="G97">
+        <v>-0.06331178103840532</v>
+      </c>
+      <c r="H97">
+        <v>-0.01639733696036697</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2450136689775841</v>
+        <v>0.2737809486244516</v>
       </c>
       <c r="C98">
-        <v>-0.04969859450192915</v>
+        <v>-0.008816379197678288</v>
       </c>
       <c r="D98">
-        <v>-0.01681175113450909</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0454194216584695</v>
+      </c>
+      <c r="E98">
+        <v>0.1929397187183625</v>
+      </c>
+      <c r="F98">
+        <v>0.03511321371022685</v>
+      </c>
+      <c r="G98">
+        <v>0.3235570579183103</v>
+      </c>
+      <c r="H98">
+        <v>-0.2053008046528014</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.387706232868402</v>
+        <v>0.250056202111506</v>
       </c>
       <c r="C99">
-        <v>0.9010423515566659</v>
+        <v>0.9182232616896652</v>
       </c>
       <c r="D99">
-        <v>0.07912041690804787</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2396568626656958</v>
+      </c>
+      <c r="E99">
+        <v>-0.07164019952404063</v>
+      </c>
+      <c r="F99">
+        <v>0.074150872745959</v>
+      </c>
+      <c r="G99">
+        <v>-0.002938706302126417</v>
+      </c>
+      <c r="H99">
+        <v>0.07884947277744105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04527136925220049</v>
+        <v>0.04751991295901732</v>
       </c>
       <c r="C101">
-        <v>-0.02973572779288435</v>
+        <v>-0.02174958636201987</v>
       </c>
       <c r="D101">
-        <v>-0.003155316861871687</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01277713801407848</v>
+      </c>
+      <c r="E101">
+        <v>-0.05688657595091981</v>
+      </c>
+      <c r="F101">
+        <v>0.01530956383449487</v>
+      </c>
+      <c r="G101">
+        <v>-0.0109965393315226</v>
+      </c>
+      <c r="H101">
+        <v>0.062208437562813</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
